--- a/biology/Médecine/William_Foege/William_Foege.xlsx
+++ b/biology/Médecine/William_Foege/William_Foege.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Foege (né le 12 mars 1936 à Decorah en Iowa) est un épidémiologiste américain.
-Il a joué un rôle déterminant dans l'éradication de la variole dans les années 1970[1], en établissant une stratégie innovante de vaccination ciblée alors qu'il était en pénurie de vaccins[2].
-Il a été directeur du Centre d'éradication de la variole de 1970 à 1973, et du centre pour le contrôle et la prévention des maladies (Centers for Disease Control and Prevention, CDC) à partir de 1977[3].
+Il a joué un rôle déterminant dans l'éradication de la variole dans les années 1970, en établissant une stratégie innovante de vaccination ciblée alors qu'il était en pénurie de vaccins.
+Il a été directeur du Centre d'éradication de la variole de 1970 à 1973, et du centre pour le contrôle et la prévention des maladies (Centers for Disease Control and Prevention, CDC) à partir de 1977.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été récompensé par de nombreux prix dont le prix Lasker-Bloomberg pour le bien public, le prestigieux Public Welfare Medal de l'académie des sciences[4] ou encore le prix "Future of Life Award" accordé par l'Institut pour l'avenir de la vie[5].
-Un bâtiment de recherche biomédicale de l'Université de Washington a été baptisé à son nom[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été récompensé par de nombreux prix dont le prix Lasker-Bloomberg pour le bien public, le prestigieux Public Welfare Medal de l'académie des sciences ou encore le prix "Future of Life Award" accordé par l'Institut pour l'avenir de la vie.
+Un bâtiment de recherche biomédicale de l'Université de Washington a été baptisé à son nom.
 </t>
         </is>
       </c>
